--- a/outputs-HGR-r202-archive3/o__Acidaminococcales.xlsx
+++ b/outputs-HGR-r202-archive3/o__Acidaminococcales.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
         </is>
       </c>
     </row>
@@ -470,18 +470,18 @@
       <c r="B2" t="n">
         <v>55056.94196745212</v>
       </c>
-      <c r="C2" t="n">
-        <v>55056.94196745212</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -493,18 +493,18 @@
       <c r="B3" t="n">
         <v>54598.92129695362</v>
       </c>
-      <c r="C3" t="n">
-        <v>54598.92129695362</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -516,18 +516,18 @@
       <c r="B4" t="n">
         <v>53037.6670860335</v>
       </c>
-      <c r="C4" t="n">
-        <v>53037.6670860335</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -539,18 +539,18 @@
       <c r="B5" t="n">
         <v>56375.30134079134</v>
       </c>
-      <c r="C5" t="n">
-        <v>56375.30134079134</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -562,18 +562,18 @@
       <c r="B6" t="n">
         <v>54033.10853440463</v>
       </c>
-      <c r="C6" t="n">
-        <v>54033.10853440463</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -585,18 +585,18 @@
       <c r="B7" t="n">
         <v>54824.45453322477</v>
       </c>
-      <c r="C7" t="n">
-        <v>54824.45453322477</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -608,18 +608,18 @@
       <c r="B8" t="n">
         <v>54761.84716206134</v>
       </c>
-      <c r="C8" t="n">
-        <v>54761.84716206134</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -631,18 +631,18 @@
       <c r="B9" t="n">
         <v>56121.71937905985</v>
       </c>
-      <c r="C9" t="n">
-        <v>56121.71937905985</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -654,18 +654,18 @@
       <c r="B10" t="n">
         <v>53642.88795501414</v>
       </c>
-      <c r="C10" t="n">
-        <v>53642.88795501414</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -677,18 +677,18 @@
       <c r="B11" t="n">
         <v>53696.74417730838</v>
       </c>
-      <c r="C11" t="n">
-        <v>53696.74417730838</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -700,18 +700,18 @@
       <c r="B12" t="n">
         <v>53388.30375845009</v>
       </c>
-      <c r="C12" t="n">
-        <v>53388.30375845009</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -723,18 +723,18 @@
       <c r="B13" t="n">
         <v>53174.51688790992</v>
       </c>
-      <c r="C13" t="n">
-        <v>53174.51688790992</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -746,18 +746,18 @@
       <c r="B14" t="n">
         <v>54760.19472336507</v>
       </c>
-      <c r="C14" t="n">
-        <v>54760.19472336507</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -769,18 +769,18 @@
       <c r="B15" t="n">
         <v>53005.2057784629</v>
       </c>
-      <c r="C15" t="n">
-        <v>53005.2057784629</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -792,18 +792,18 @@
       <c r="B16" t="n">
         <v>53626.15583205222</v>
       </c>
-      <c r="C16" t="n">
-        <v>53626.15583205222</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -815,18 +815,18 @@
       <c r="B17" t="n">
         <v>51923.47439907641</v>
       </c>
-      <c r="C17" t="n">
-        <v>51923.47439907641</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -838,18 +838,18 @@
       <c r="B18" t="n">
         <v>33537.3220965121</v>
       </c>
-      <c r="C18" t="n">
-        <v>33537.3220965121</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -861,18 +861,18 @@
       <c r="B19" t="n">
         <v>53667.5270125501</v>
       </c>
-      <c r="C19" t="n">
-        <v>53667.5270125501</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -884,18 +884,18 @@
       <c r="B20" t="n">
         <v>52481.56335908888</v>
       </c>
-      <c r="C20" t="n">
-        <v>52481.56335908888</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -907,18 +907,18 @@
       <c r="B21" t="n">
         <v>54022.22854895495</v>
       </c>
-      <c r="C21" t="n">
-        <v>54022.22854895495</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -930,18 +930,18 @@
       <c r="B22" t="n">
         <v>52185.82458895673</v>
       </c>
-      <c r="C22" t="n">
-        <v>52185.82458895673</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -953,18 +953,18 @@
       <c r="B23" t="n">
         <v>53595.14742669411</v>
       </c>
-      <c r="C23" t="n">
-        <v>53595.14742669411</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -976,18 +976,18 @@
       <c r="B24" t="n">
         <v>54089.08096068684</v>
       </c>
-      <c r="C24" t="n">
-        <v>54089.08096068684</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -999,18 +999,18 @@
       <c r="B25" t="n">
         <v>52359.40351076837</v>
       </c>
-      <c r="C25" t="n">
-        <v>52359.40351076837</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1022,18 +1022,18 @@
       <c r="B26" t="n">
         <v>53692.01379364128</v>
       </c>
-      <c r="C26" t="n">
-        <v>53692.01379364128</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1045,18 +1045,18 @@
       <c r="B27" t="n">
         <v>52213.98122820347</v>
       </c>
-      <c r="C27" t="n">
-        <v>52213.98122820347</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1068,18 +1068,18 @@
       <c r="B28" t="n">
         <v>34135.89450875262</v>
       </c>
-      <c r="C28" t="n">
-        <v>34135.89450875262</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1091,18 +1091,18 @@
       <c r="B29" t="n">
         <v>54191.79762747345</v>
       </c>
-      <c r="C29" t="n">
-        <v>54191.79762747345</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1114,18 +1114,18 @@
       <c r="B30" t="n">
         <v>33158.40660853032</v>
       </c>
-      <c r="C30" t="n">
-        <v>33158.40660853032</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1137,18 +1137,18 @@
       <c r="B31" t="n">
         <v>30322.21923631939</v>
       </c>
-      <c r="C31" t="n">
-        <v>30322.21923631939</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1160,18 +1160,18 @@
       <c r="B32" t="n">
         <v>30412.04361024504</v>
       </c>
-      <c r="C32" t="n">
-        <v>30412.04361024504</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1183,18 +1183,18 @@
       <c r="B33" t="n">
         <v>30375.64819992932</v>
       </c>
-      <c r="C33" t="n">
-        <v>30375.64819992932</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1206,18 +1206,18 @@
       <c r="B34" t="n">
         <v>30404.27846254504</v>
       </c>
-      <c r="C34" t="n">
-        <v>30404.27846254504</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1229,18 +1229,18 @@
       <c r="B35" t="n">
         <v>30416.94842737841</v>
       </c>
-      <c r="C35" t="n">
-        <v>30416.94842737841</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1252,18 +1252,18 @@
       <c r="B36" t="n">
         <v>54050.82183953027</v>
       </c>
-      <c r="C36" t="n">
-        <v>54050.82183953027</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1275,18 +1275,18 @@
       <c r="B37" t="n">
         <v>54825.25844750373</v>
       </c>
-      <c r="C37" t="n">
-        <v>54825.25844750373</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1298,18 +1298,18 @@
       <c r="B38" t="n">
         <v>52378.67532400285</v>
       </c>
-      <c r="C38" t="n">
-        <v>52378.67532400285</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1321,18 +1321,18 @@
       <c r="B39" t="n">
         <v>55194.66518006257</v>
       </c>
-      <c r="C39" t="n">
-        <v>55194.66518006257</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1344,18 +1344,18 @@
       <c r="B40" t="n">
         <v>53309.7338515756</v>
       </c>
-      <c r="C40" t="n">
-        <v>53309.7338515756</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1367,18 +1367,18 @@
       <c r="B41" t="n">
         <v>52466.0086075453</v>
       </c>
-      <c r="C41" t="n">
-        <v>52466.0086075453</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1390,18 +1390,18 @@
       <c r="B42" t="n">
         <v>56309.09978022089</v>
       </c>
-      <c r="C42" t="n">
-        <v>56309.09978022089</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1413,18 +1413,18 @@
       <c r="B43" t="n">
         <v>55404.22444766422</v>
       </c>
-      <c r="C43" t="n">
-        <v>55404.22444766422</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1436,18 +1436,18 @@
       <c r="B44" t="n">
         <v>56221.53470983439</v>
       </c>
-      <c r="C44" t="n">
-        <v>56221.53470983439</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1459,18 +1459,18 @@
       <c r="B45" t="n">
         <v>56799.31752167037</v>
       </c>
-      <c r="C45" t="n">
-        <v>56799.31752167037</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1482,18 +1482,18 @@
       <c r="B46" t="n">
         <v>51595.71756239964</v>
       </c>
-      <c r="C46" t="n">
-        <v>51595.71756239964</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1505,18 +1505,18 @@
       <c r="B47" t="n">
         <v>53966.8947748722</v>
       </c>
-      <c r="C47" t="n">
-        <v>53966.8947748722</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1528,18 +1528,18 @@
       <c r="B48" t="n">
         <v>52949.15304432932</v>
       </c>
-      <c r="C48" t="n">
-        <v>52949.15304432932</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1551,18 +1551,18 @@
       <c r="B49" t="n">
         <v>54607.20139853348</v>
       </c>
-      <c r="C49" t="n">
-        <v>54607.20139853348</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1574,18 +1574,18 @@
       <c r="B50" t="n">
         <v>55509.50926720643</v>
       </c>
-      <c r="C50" t="n">
-        <v>55509.50926720643</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1597,18 +1597,18 @@
       <c r="B51" t="n">
         <v>54097.45193839382</v>
       </c>
-      <c r="C51" t="n">
-        <v>54097.45193839382</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1620,18 +1620,18 @@
       <c r="B52" t="n">
         <v>52687.15361349913</v>
       </c>
-      <c r="C52" t="n">
-        <v>52687.15361349913</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1643,18 +1643,18 @@
       <c r="B53" t="n">
         <v>53182.72403811969</v>
       </c>
-      <c r="C53" t="n">
-        <v>53182.72403811969</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1666,18 +1666,18 @@
       <c r="B54" t="n">
         <v>54385.17370483505</v>
       </c>
-      <c r="C54" t="n">
-        <v>54385.17370483505</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1689,18 +1689,18 @@
       <c r="B55" t="n">
         <v>54407.12454389074</v>
       </c>
-      <c r="C55" t="n">
-        <v>54407.12454389074</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1712,18 +1712,18 @@
       <c r="B56" t="n">
         <v>52807.13723186708</v>
       </c>
-      <c r="C56" t="n">
-        <v>52807.13723186708</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1735,18 +1735,18 @@
       <c r="B57" t="n">
         <v>54291.29939892967</v>
       </c>
-      <c r="C57" t="n">
-        <v>54291.29939892967</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1758,18 +1758,18 @@
       <c r="B58" t="n">
         <v>53859.70051003328</v>
       </c>
-      <c r="C58" t="n">
-        <v>53859.70051003328</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1781,18 +1781,18 @@
       <c r="B59" t="n">
         <v>53853.7610203346</v>
       </c>
-      <c r="C59" t="n">
-        <v>53853.7610203346</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1804,18 +1804,18 @@
       <c r="B60" t="n">
         <v>54041.76512278241</v>
       </c>
-      <c r="C60" t="n">
-        <v>54041.76512278241</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1827,18 +1827,18 @@
       <c r="B61" t="n">
         <v>54387.71255284584</v>
       </c>
-      <c r="C61" t="n">
-        <v>54387.71255284584</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1850,18 +1850,18 @@
       <c r="B62" t="n">
         <v>52724.91575030159</v>
       </c>
-      <c r="C62" t="n">
-        <v>52724.91575030159</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1873,18 +1873,18 @@
       <c r="B63" t="n">
         <v>54306.38599685662</v>
       </c>
-      <c r="C63" t="n">
-        <v>54306.38599685662</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1896,18 +1896,18 @@
       <c r="B64" t="n">
         <v>55824.80594370552</v>
       </c>
-      <c r="C64" t="n">
-        <v>55824.80594370552</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1919,18 +1919,18 @@
       <c r="B65" t="n">
         <v>54684.12902157709</v>
       </c>
-      <c r="C65" t="n">
-        <v>54684.12902157709</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1942,18 +1942,18 @@
       <c r="B66" t="n">
         <v>52943.20260156911</v>
       </c>
-      <c r="C66" t="n">
-        <v>52943.20260156911</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1965,18 +1965,18 @@
       <c r="B67" t="n">
         <v>54106.31752150235</v>
       </c>
-      <c r="C67" t="n">
-        <v>54106.31752150235</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1988,18 +1988,18 @@
       <c r="B68" t="n">
         <v>53353.14904905709</v>
       </c>
-      <c r="C68" t="n">
-        <v>53353.14904905709</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2011,18 +2011,18 @@
       <c r="B69" t="n">
         <v>54693.49858961193</v>
       </c>
-      <c r="C69" t="n">
-        <v>54693.49858961193</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2034,18 +2034,18 @@
       <c r="B70" t="n">
         <v>55210.3028924504</v>
       </c>
-      <c r="C70" t="n">
-        <v>55210.3028924504</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2057,18 +2057,18 @@
       <c r="B71" t="n">
         <v>57056.72197223999</v>
       </c>
-      <c r="C71" t="n">
-        <v>57056.72197223999</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2080,18 +2080,18 @@
       <c r="B72" t="n">
         <v>55612.14669385357</v>
       </c>
-      <c r="C72" t="n">
-        <v>55612.14669385357</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2103,18 +2103,18 @@
       <c r="B73" t="n">
         <v>54352.27711726047</v>
       </c>
-      <c r="C73" t="n">
-        <v>54352.27711726047</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2126,18 +2126,18 @@
       <c r="B74" t="n">
         <v>56220.52136492524</v>
       </c>
-      <c r="C74" t="n">
-        <v>56220.52136492524</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2149,18 +2149,18 @@
       <c r="B75" t="n">
         <v>53782.00419812693</v>
       </c>
-      <c r="C75" t="n">
-        <v>53782.00419812693</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2172,18 +2172,18 @@
       <c r="B76" t="n">
         <v>54261.5645711476</v>
       </c>
-      <c r="C76" t="n">
-        <v>54261.5645711476</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2195,18 +2195,18 @@
       <c r="B77" t="n">
         <v>53182.37537419601</v>
       </c>
-      <c r="C77" t="n">
-        <v>53182.37537419601</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2218,18 +2218,18 @@
       <c r="B78" t="n">
         <v>54521.05938816968</v>
       </c>
-      <c r="C78" t="n">
-        <v>54521.05938816968</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2241,18 +2241,18 @@
       <c r="B79" t="n">
         <v>53260.3525226721</v>
       </c>
-      <c r="C79" t="n">
-        <v>53260.3525226721</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2264,18 +2264,18 @@
       <c r="B80" t="n">
         <v>54372.49638887824</v>
       </c>
-      <c r="C80" t="n">
-        <v>54372.49638887824</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2287,18 +2287,18 @@
       <c r="B81" t="n">
         <v>52847.40500801749</v>
       </c>
-      <c r="C81" t="n">
-        <v>52847.40500801749</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2310,18 +2310,18 @@
       <c r="B82" t="n">
         <v>54984.62070203081</v>
       </c>
-      <c r="C82" t="n">
-        <v>54984.62070203081</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2333,18 +2333,18 @@
       <c r="B83" t="n">
         <v>53441.58555438572</v>
       </c>
-      <c r="C83" t="n">
-        <v>53441.58555438572</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2356,18 +2356,18 @@
       <c r="B84" t="n">
         <v>52963.33732499644</v>
       </c>
-      <c r="C84" t="n">
-        <v>52963.33732499644</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2379,18 +2379,18 @@
       <c r="B85" t="n">
         <v>54730.42441686742</v>
       </c>
-      <c r="C85" t="n">
-        <v>54730.42441686742</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2402,18 +2402,18 @@
       <c r="B86" t="n">
         <v>52982.13500052106</v>
       </c>
-      <c r="C86" t="n">
-        <v>52982.13500052106</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2425,18 +2425,18 @@
       <c r="B87" t="n">
         <v>52225.80388167141</v>
       </c>
-      <c r="C87" t="n">
-        <v>52225.80388167141</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2448,18 +2448,18 @@
       <c r="B88" t="n">
         <v>54464.76509709892</v>
       </c>
-      <c r="C88" t="n">
-        <v>54464.76509709892</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2471,18 +2471,18 @@
       <c r="B89" t="n">
         <v>52996.28195121928</v>
       </c>
-      <c r="C89" t="n">
-        <v>52996.28195121928</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2494,18 +2494,18 @@
       <c r="B90" t="n">
         <v>54609.83525586386</v>
       </c>
-      <c r="C90" t="n">
-        <v>54609.83525586386</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2517,18 +2517,18 @@
       <c r="B91" t="n">
         <v>53734.01694781901</v>
       </c>
-      <c r="C91" t="n">
-        <v>53734.01694781901</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2540,18 +2540,18 @@
       <c r="B92" t="n">
         <v>54066.18273411346</v>
       </c>
-      <c r="C92" t="n">
-        <v>54066.18273411346</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2563,18 +2563,18 @@
       <c r="B93" t="n">
         <v>55086.55836072282</v>
       </c>
-      <c r="C93" t="n">
-        <v>55086.55836072282</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2586,18 +2586,18 @@
       <c r="B94" t="n">
         <v>53796.80933456085</v>
       </c>
-      <c r="C94" t="n">
-        <v>53796.80933456085</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2609,18 +2609,18 @@
       <c r="B95" t="n">
         <v>54531.51916531862</v>
       </c>
-      <c r="C95" t="n">
-        <v>54531.51916531862</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2632,18 +2632,18 @@
       <c r="B96" t="n">
         <v>50076.54203943755</v>
       </c>
-      <c r="C96" t="n">
-        <v>50076.54203943755</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2655,18 +2655,18 @@
       <c r="B97" t="n">
         <v>56106.15153398691</v>
       </c>
-      <c r="C97" t="n">
-        <v>56106.15153398691</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2678,18 +2678,18 @@
       <c r="B98" t="n">
         <v>50590.02587086613</v>
       </c>
-      <c r="C98" t="n">
-        <v>50590.02587086613</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2701,18 +2701,18 @@
       <c r="B99" t="n">
         <v>57514.19300493636</v>
       </c>
-      <c r="C99" t="n">
-        <v>57514.19300493636</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2724,18 +2724,18 @@
       <c r="B100" t="n">
         <v>56356.75583278862</v>
       </c>
-      <c r="C100" t="n">
-        <v>56356.75583278862</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2747,18 +2747,18 @@
       <c r="B101" t="n">
         <v>53888.8689001341</v>
       </c>
-      <c r="C101" t="n">
-        <v>53888.8689001341</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2770,18 +2770,18 @@
       <c r="B102" t="n">
         <v>54509.98409278198</v>
       </c>
-      <c r="C102" t="n">
-        <v>54509.98409278198</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2793,18 +2793,18 @@
       <c r="B103" t="n">
         <v>56356.75475810499</v>
       </c>
-      <c r="C103" t="n">
-        <v>56356.75475810499</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2816,18 +2816,18 @@
       <c r="B104" t="n">
         <v>54308.91718014741</v>
       </c>
-      <c r="C104" t="n">
-        <v>54308.91718014741</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2839,18 +2839,18 @@
       <c r="B105" t="n">
         <v>53691.44877828818</v>
       </c>
-      <c r="C105" t="n">
-        <v>53691.44877828818</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2862,18 +2862,18 @@
       <c r="B106" t="n">
         <v>56570.72219202061</v>
       </c>
-      <c r="C106" t="n">
-        <v>56570.72219202061</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2885,18 +2885,18 @@
       <c r="B107" t="n">
         <v>53872.50211000242</v>
       </c>
-      <c r="C107" t="n">
-        <v>53872.50211000242</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2908,18 +2908,18 @@
       <c r="B108" t="n">
         <v>56019.8725100006</v>
       </c>
-      <c r="C108" t="n">
-        <v>56019.8725100006</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2931,18 +2931,18 @@
       <c r="B109" t="n">
         <v>55248.06705792871</v>
       </c>
-      <c r="C109" t="n">
-        <v>55248.06705792871</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2954,18 +2954,18 @@
       <c r="B110" t="n">
         <v>55530.21494720649</v>
       </c>
-      <c r="C110" t="n">
-        <v>55530.21494720649</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2977,18 +2977,18 @@
       <c r="B111" t="n">
         <v>56228.3631102731</v>
       </c>
-      <c r="C111" t="n">
-        <v>56228.3631102731</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3000,18 +3000,18 @@
       <c r="B112" t="n">
         <v>56950.50235158825</v>
       </c>
-      <c r="C112" t="n">
-        <v>56950.50235158825</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3023,18 +3023,18 @@
       <c r="B113" t="n">
         <v>56328.14308025468</v>
       </c>
-      <c r="C113" t="n">
-        <v>56328.14308025468</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3046,18 +3046,18 @@
       <c r="B114" t="n">
         <v>54578.89259477874</v>
       </c>
-      <c r="C114" t="n">
-        <v>54578.89259477874</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3069,18 +3069,18 @@
       <c r="B115" t="n">
         <v>54829.48934779584</v>
       </c>
-      <c r="C115" t="n">
-        <v>54829.48934779584</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E115" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3092,18 +3092,18 @@
       <c r="B116" t="n">
         <v>55190.49234809783</v>
       </c>
-      <c r="C116" t="n">
-        <v>55190.49234809783</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3115,18 +3115,18 @@
       <c r="B117" t="n">
         <v>52064.84580113211</v>
       </c>
-      <c r="C117" t="n">
-        <v>52064.84580113211</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3138,18 +3138,18 @@
       <c r="B118" t="n">
         <v>53224.59442441326</v>
       </c>
-      <c r="C118" t="n">
-        <v>53224.59442441326</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3161,18 +3161,18 @@
       <c r="B119" t="n">
         <v>53583.56859165468</v>
       </c>
-      <c r="C119" t="n">
-        <v>53583.56859165468</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3184,18 +3184,18 @@
       <c r="B120" t="n">
         <v>54242.34323639484</v>
       </c>
-      <c r="C120" t="n">
-        <v>54242.34323639484</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3207,18 +3207,18 @@
       <c r="B121" t="n">
         <v>53862.14509287622</v>
       </c>
-      <c r="C121" t="n">
-        <v>53862.14509287622</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3230,18 +3230,18 @@
       <c r="B122" t="n">
         <v>55157.56660032079</v>
       </c>
-      <c r="C122" t="n">
-        <v>55157.56660032079</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3253,18 +3253,18 @@
       <c r="B123" t="n">
         <v>55234.03277623288</v>
       </c>
-      <c r="C123" t="n">
-        <v>55234.03277623288</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3276,18 +3276,18 @@
       <c r="B124" t="n">
         <v>54454.75681898042</v>
       </c>
-      <c r="C124" t="n">
-        <v>54454.75681898042</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3299,18 +3299,18 @@
       <c r="B125" t="n">
         <v>55194.18347078373</v>
       </c>
-      <c r="C125" t="n">
-        <v>55194.18347078373</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3322,18 +3322,18 @@
       <c r="B126" t="n">
         <v>53379.43135940735</v>
       </c>
-      <c r="C126" t="n">
-        <v>53379.43135940735</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3345,18 +3345,18 @@
       <c r="B127" t="n">
         <v>54746.33805570842</v>
       </c>
-      <c r="C127" t="n">
-        <v>54746.33805570842</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3368,18 +3368,18 @@
       <c r="B128" t="n">
         <v>52393.71435290722</v>
       </c>
-      <c r="C128" t="n">
-        <v>52393.71435290722</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3391,18 +3391,18 @@
       <c r="B129" t="n">
         <v>52314.22112578407</v>
       </c>
-      <c r="C129" t="n">
-        <v>52314.22112578407</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3414,18 +3414,18 @@
       <c r="B130" t="n">
         <v>53211.81155355379</v>
       </c>
-      <c r="C130" t="n">
-        <v>53211.81155355379</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3437,18 +3437,18 @@
       <c r="B131" t="n">
         <v>55539.79068351114</v>
       </c>
-      <c r="C131" t="n">
-        <v>55539.79068351114</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3460,18 +3460,18 @@
       <c r="B132" t="n">
         <v>52439.58333692738</v>
       </c>
-      <c r="C132" t="n">
-        <v>52439.58333692738</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3483,18 +3483,18 @@
       <c r="B133" t="n">
         <v>52565.36286616763</v>
       </c>
-      <c r="C133" t="n">
-        <v>52565.36286616763</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3506,18 +3506,18 @@
       <c r="B134" t="n">
         <v>55490.43654222789</v>
       </c>
-      <c r="C134" t="n">
-        <v>55490.43654222789</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3529,18 +3529,18 @@
       <c r="B135" t="n">
         <v>52431.59252111781</v>
       </c>
-      <c r="C135" t="n">
-        <v>52431.59252111781</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E135" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3552,18 +3552,18 @@
       <c r="B136" t="n">
         <v>55103.61935485146</v>
       </c>
-      <c r="C136" t="n">
-        <v>55103.61935485146</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3575,18 +3575,18 @@
       <c r="B137" t="n">
         <v>55324.88679159225</v>
       </c>
-      <c r="C137" t="n">
-        <v>55324.88679159225</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3598,18 +3598,18 @@
       <c r="B138" t="n">
         <v>52256.9025486965</v>
       </c>
-      <c r="C138" t="n">
-        <v>52256.9025486965</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E138" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3621,18 +3621,18 @@
       <c r="B139" t="n">
         <v>55707.12233985787</v>
       </c>
-      <c r="C139" t="n">
-        <v>55707.12233985787</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E139" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3644,18 +3644,18 @@
       <c r="B140" t="n">
         <v>55002.18015302434</v>
       </c>
-      <c r="C140" t="n">
-        <v>55002.18015302434</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3667,18 +3667,18 @@
       <c r="B141" t="n">
         <v>56606.21058120753</v>
       </c>
-      <c r="C141" t="n">
-        <v>56606.21058120753</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3690,18 +3690,18 @@
       <c r="B142" t="n">
         <v>52439.34371460234</v>
       </c>
-      <c r="C142" t="n">
-        <v>52439.34371460234</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3713,18 +3713,18 @@
       <c r="B143" t="n">
         <v>52323.32482328873</v>
       </c>
-      <c r="C143" t="n">
-        <v>52323.32482328873</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -3736,18 +3736,18 @@
       <c r="B144" t="n">
         <v>52340.20396991688</v>
       </c>
-      <c r="C144" t="n">
-        <v>52340.20396991688</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -3759,18 +3759,18 @@
       <c r="B145" t="n">
         <v>52383.24708006343</v>
       </c>
-      <c r="C145" t="n">
-        <v>52383.24708006343</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -3782,18 +3782,18 @@
       <c r="B146" t="n">
         <v>55922.29599987675</v>
       </c>
-      <c r="C146" t="n">
-        <v>55922.29599987675</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3805,18 +3805,18 @@
       <c r="B147" t="n">
         <v>54896.76128435106</v>
       </c>
-      <c r="C147" t="n">
-        <v>54896.76128435106</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E147" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3828,18 +3828,18 @@
       <c r="B148" t="n">
         <v>55572.88699716223</v>
       </c>
-      <c r="C148" t="n">
-        <v>55572.88699716223</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3851,18 +3851,18 @@
       <c r="B149" t="n">
         <v>52437.57969337441</v>
       </c>
-      <c r="C149" t="n">
-        <v>52437.57969337441</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -3874,18 +3874,18 @@
       <c r="B150" t="n">
         <v>55222.61993306826</v>
       </c>
-      <c r="C150" t="n">
-        <v>55222.61993306826</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -3897,18 +3897,18 @@
       <c r="B151" t="n">
         <v>56428.48971454824</v>
       </c>
-      <c r="C151" t="n">
-        <v>56428.48971454824</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E151" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -3920,18 +3920,18 @@
       <c r="B152" t="n">
         <v>52459.52417717229</v>
       </c>
-      <c r="C152" t="n">
-        <v>52459.52417717229</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E152" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -3943,18 +3943,18 @@
       <c r="B153" t="n">
         <v>54842.21038445768</v>
       </c>
-      <c r="C153" t="n">
-        <v>54842.21038445768</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3966,18 +3966,18 @@
       <c r="B154" t="n">
         <v>52463.65075287291</v>
       </c>
-      <c r="C154" t="n">
-        <v>52463.65075287291</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E154" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3989,18 +3989,18 @@
       <c r="B155" t="n">
         <v>52708.24522967654</v>
       </c>
-      <c r="C155" t="n">
-        <v>52708.24522967654</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4012,18 +4012,18 @@
       <c r="B156" t="n">
         <v>54692.77444122751</v>
       </c>
-      <c r="C156" t="n">
-        <v>54692.77444122751</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
+      <c r="E156" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
